--- a/Temp/JD_DevOps.xlsx
+++ b/Temp/JD_DevOps.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28207"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49249BEA-035E-4648-AFC9-1EDB5E1EDB40}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D22FED-9CA2-499D-B01D-1B4C6209F765}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,26 +31,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Skills</t>
   </si>
   <si>
-    <t>Weightage</t>
+    <t>Level of Expertise</t>
+  </si>
+  <si>
+    <t>Year of experience (Min)</t>
+  </si>
+  <si>
+    <t>Year of experience (Max)</t>
   </si>
   <si>
     <t>Linux</t>
   </si>
   <si>
+    <t>L4</t>
+  </si>
+  <si>
     <t>Unix</t>
   </si>
   <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Bash Scripting</t>
+  </si>
+  <si>
+    <t>Shell Scripting</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Problem Solving</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
     <t>Windows Server</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>Go</t>
   </si>
   <si>
@@ -63,24 +105,12 @@
     <t>JavaScript</t>
   </si>
   <si>
-    <t>Bash Scripting</t>
-  </si>
-  <si>
-    <t>Shell Scripting</t>
-  </si>
-  <si>
-    <t>Ansible</t>
-  </si>
-  <si>
     <t>Puppet</t>
   </si>
   <si>
     <t>Chef</t>
   </si>
   <si>
-    <t>Jenkins</t>
-  </si>
-  <si>
     <t>GitLab CI</t>
   </si>
   <si>
@@ -90,12 +120,6 @@
     <t>Travis CI</t>
   </si>
   <si>
-    <t>Docker</t>
-  </si>
-  <si>
-    <t>Kubernetes</t>
-  </si>
-  <si>
     <t>OpenShift</t>
   </si>
   <si>
@@ -127,9 +151,6 @@
   </si>
   <si>
     <t>Helm</t>
-  </si>
-  <si>
-    <t>Problem Solving</t>
   </si>
 </sst>
 </file>
@@ -188,7 +209,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,275 +546,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.05</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.05</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.05</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.1</v>
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.1</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.05</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0.05</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0.05</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0.05</v>
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.05</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0.05</v>
+        <v>33</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0.05</v>
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0.05</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0.05</v>
+        <v>36</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3">
-        <v>0.05</v>
+        <v>37</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3">
-        <v>0.05</v>
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3">
-        <v>0.1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B32">
+    <sortCondition descending="1" ref="B2:B32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>